--- a/에너지빈곤/에너지빈곤 방법론 정리.xlsx
+++ b/에너지빈곤/에너지빈곤 방법론 정리.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\에너지빈곤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665136C5-AAFC-4646-9A69-F148147C72AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF57AF2E-2950-4FA3-93F4-DE5DC2E6A875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7BC667B8-0C20-47A6-9427-6C16E814BB65}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="방법론 및 데이터" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -343,32 +344,34 @@
     <t>https://www.mohw.go.kr/menu.es?mid=a10708010900</t>
   </si>
   <si>
+    <t>처분가능소득의 중앙값 (통계표1~10sheet)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가계금융복지조사 결과를 활용하면, 가처분소득 중위값은 알수 있어서, AFCP를 적용할 수 있는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIHC는 전체가구의 에너지비용 지출액의 중위값을 알아야하는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>균등화' 방법에 대한 내용은 이은솔 외(2019), 혹은 윤태연 외 (2019)를 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kostat.go.kr/menu.es?mid=b80301000000</t>
+  </si>
+  <si>
+    <t>균등화 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://kostat.go.kr/menu.es?mid=b80304020000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://kostat.go.kr/board.es?mid=a10301040300&amp;bid=215&amp;act=view&amp;list_no=428364</t>
-  </si>
-  <si>
-    <t>처분가능소득의 중앙값 (통계표1~10sheet)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가계금융복지조사 결과를 활용하면, 가처분소득 중위값은 알수 있어서, AFCP를 적용할 수 있는데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIHC는 전체가구의 에너지비용 지출액의 중위값을 알아야하는데?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>균등화' 방법에 대한 내용은 이은솔 외(2019), 혹은 윤태연 외 (2019)를 참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kostat.go.kr/menu.es?mid=b80301000000</t>
-  </si>
-  <si>
-    <t>균등화 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +390,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -416,12 +428,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,9 +446,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -768,7 +787,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1237,19 +1256,19 @@
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="G27" t="s">
-        <v>84</v>
+      <c r="G27" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="G28" t="s">
-        <v>85</v>
+      <c r="G28" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -1269,7 +1288,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
@@ -1277,7 +1296,7 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
@@ -1287,18 +1306,37 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G27" r:id="rId1" xr:uid="{1A783787-456E-4C84-9FAF-08831C4248D6}"/>
+    <hyperlink ref="G28" r:id="rId2" xr:uid="{C840C1F5-DC28-41D7-9B56-EFC874833C04}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DF004A-7BC2-4016-A15B-9E0AE8C9F05E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
